--- a/input-data.xlsx
+++ b/input-data.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1392,7 +1392,7 @@
       <c r="F7" s="7">
         <v>0.125</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="F8" s="7">
         <v>0.125</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>0.27500000000000002</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="F9" s="7">
         <v>0.125</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>0.30499999999999999</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="F10" s="7">
         <v>0.125</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>0.33499999999999996</v>
       </c>
@@ -2028,7 +2028,7 @@
       <c r="F11" s="7">
         <v>0.125</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>0.36499999999999999</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="F12" s="7">
         <v>0.125</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>0.39500000000000002</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="F13" s="7">
         <v>0.125</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>0.45500000000000002</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="F14" s="7">
         <v>0.125</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>0.51500000000000001</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="F15" s="7">
         <v>0.125</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>0.57499999999999996</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="F23" s="6">
         <v>0.24</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="6">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -4069,7 +4069,7 @@
       <c r="F24" s="6">
         <v>0.24</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="6">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
@@ -4228,7 +4228,7 @@
       <c r="F25" s="6">
         <v>0.24</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="6">
         <f t="shared" si="0"/>
         <v>0.45999999999999996</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="F26" s="6">
         <v>0.24</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="6">
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
@@ -4546,7 +4546,7 @@
       <c r="F27" s="6">
         <v>0.24</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="6">
         <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="F28" s="6">
         <v>0.24</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="6">
         <f t="shared" si="0"/>
         <v>0.58000000000000007</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="F29" s="6">
         <v>0.24</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="6">
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
@@ -5023,7 +5023,7 @@
       <c r="F30" s="6">
         <v>0.24</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="6">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="F31" s="6">
         <v>0.24</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="6">
         <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
@@ -6580,7 +6580,7 @@
       <c r="F40" s="6">
         <v>0.42</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="6">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="F41" s="6">
         <v>0.42</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="6">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
@@ -6898,7 +6898,7 @@
       <c r="F42" s="6">
         <v>0.42</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="6">
         <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="F43" s="6">
         <v>0.42</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="6">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -7216,7 +7216,7 @@
       <c r="F44" s="6">
         <v>0.42</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="6">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="F45" s="6">
         <v>0.42</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="6">
         <f t="shared" si="0"/>
         <v>0.65999999999999992</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="F46" s="6">
         <v>0.42</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="6">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
@@ -7690,7 +7690,7 @@
       <c r="F47" s="6">
         <v>0.42</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="6">
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
@@ -9115,7 +9115,7 @@
       <c r="F56" s="6">
         <v>0.15</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="6">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
@@ -9274,7 +9274,7 @@
       <c r="F57" s="6">
         <v>0.15</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="6">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="F58" s="6">
         <v>0.15</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="6">
         <f t="shared" si="0"/>
         <v>0.32999999999999996</v>
       </c>
@@ -9592,7 +9592,7 @@
       <c r="F59" s="6">
         <v>0.15</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="6">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
@@ -9751,7 +9751,7 @@
       <c r="F60" s="6">
         <v>0.15</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="6">
         <f t="shared" si="0"/>
         <v>0.39</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="F61" s="6">
         <v>0.15</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="6">
         <f t="shared" si="0"/>
         <v>0.42000000000000004</v>
       </c>
@@ -10069,7 +10069,7 @@
       <c r="F62" s="6">
         <v>0.15</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="6">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
@@ -10228,7 +10228,7 @@
       <c r="F63" s="6">
         <v>0.15</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="6">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
@@ -11977,7 +11977,7 @@
       <c r="F74" s="6">
         <v>0.18</v>
       </c>
-      <c r="G74" s="4">
+      <c r="G74" s="6">
         <f t="shared" si="1"/>
         <v>0.32999999999999996</v>
       </c>
@@ -12136,7 +12136,7 @@
       <c r="F75" s="6">
         <v>0.18</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="6">
         <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
@@ -12295,7 +12295,7 @@
       <c r="F76" s="6">
         <v>0.18</v>
       </c>
-      <c r="G76" s="4">
+      <c r="G76" s="6">
         <f t="shared" si="1"/>
         <v>0.39</v>
       </c>
@@ -12454,7 +12454,7 @@
       <c r="F77" s="6">
         <v>0.18</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="6">
         <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
@@ -12613,7 +12613,7 @@
       <c r="F78" s="6">
         <v>0.18</v>
       </c>
-      <c r="G78" s="4">
+      <c r="G78" s="6">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
@@ -12772,7 +12772,7 @@
       <c r="F79" s="6">
         <v>0.18</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G79" s="6">
         <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
@@ -12931,7 +12931,7 @@
       <c r="F80" s="6">
         <v>0.18</v>
       </c>
-      <c r="G80" s="4">
+      <c r="G80" s="6">
         <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
@@ -13090,7 +13090,7 @@
       <c r="F81" s="6">
         <v>0.18</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="6">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
@@ -13249,7 +13249,7 @@
       <c r="F82" s="6">
         <v>0.18</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G82" s="6">
         <f t="shared" si="1"/>
         <v>0.65999999999999992</v>
       </c>
@@ -13408,7 +13408,7 @@
       <c r="F83" s="6">
         <v>0.18</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G83" s="6">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>

--- a/input-data.xlsx
+++ b/input-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Negreiros\000_WiMi\014_PostProcessing_MultiPAC\post-processing-python-tools\kf-converter-via-modflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Negreiros\git\kf-converter-w-flopy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="54">
   <si>
     <t>depth</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>lz</t>
+  </si>
+  <si>
+    <t>corrected_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z </t>
+  </si>
+  <si>
+    <t>elevation in m</t>
   </si>
 </sst>
 </file>
@@ -516,22 +525,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB83"/>
+  <dimension ref="A1:BD83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="AI57" workbookViewId="0">
+      <selection activeCell="BB75" sqref="BB75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="54" width="8.88671875" customWidth="1"/>
+    <col min="55" max="55" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -694,8 +705,14 @@
       <c r="BB1" s="1">
         <v>6.0000000000000002E-5</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -744,8 +761,14 @@
       <c r="T2" t="s">
         <v>17</v>
       </c>
+      <c r="BC2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -901,8 +924,15 @@
       <c r="BB3" s="2">
         <v>0</v>
       </c>
+      <c r="BC3" s="2">
+        <v>330</v>
+      </c>
+      <c r="BD3" s="2">
+        <f>B3</f>
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="4" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1088,15 @@
       <c r="BB4" s="2">
         <v>0</v>
       </c>
+      <c r="BC4" s="2">
+        <v>330</v>
+      </c>
+      <c r="BD4" s="2">
+        <f t="shared" ref="BD4:BD6" si="1">B4</f>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="5" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1215,8 +1252,15 @@
       <c r="BB5" s="2">
         <v>0</v>
       </c>
+      <c r="BC5" s="2">
+        <v>330</v>
+      </c>
+      <c r="BD5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="6" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1372,8 +1416,15 @@
       <c r="BB6" s="2">
         <v>0</v>
       </c>
+      <c r="BC6" s="2">
+        <v>330</v>
+      </c>
+      <c r="BD6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="7" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1531,8 +1582,15 @@
       <c r="BB7" s="6">
         <v>0</v>
       </c>
+      <c r="BC7" s="6">
+        <v>329.97</v>
+      </c>
+      <c r="BD7" s="6">
+        <f>$BC$7-$BC$3+B7</f>
+        <v>9.000000000002728E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1690,8 +1748,15 @@
       <c r="BB8" s="6">
         <v>0</v>
       </c>
+      <c r="BC8" s="6">
+        <v>329.97</v>
+      </c>
+      <c r="BD8" s="6">
+        <f t="shared" ref="BD8:BD15" si="2">$BC$7-$BC$3+B8</f>
+        <v>0.12000000000002728</v>
+      </c>
     </row>
-    <row r="9" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1849,8 +1914,15 @@
       <c r="BB9" s="6">
         <v>0</v>
       </c>
+      <c r="BC9" s="6">
+        <v>329.97</v>
+      </c>
+      <c r="BD9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.15000000000002728</v>
+      </c>
     </row>
-    <row r="10" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -2008,8 +2080,15 @@
       <c r="BB10" s="6">
         <v>0</v>
       </c>
+      <c r="BC10" s="6">
+        <v>329.97</v>
+      </c>
+      <c r="BD10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18000000000002728</v>
+      </c>
     </row>
-    <row r="11" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -2167,8 +2246,15 @@
       <c r="BB11" s="6">
         <v>0</v>
       </c>
+      <c r="BC11" s="6">
+        <v>329.97</v>
+      </c>
+      <c r="BD11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.21000000000002728</v>
+      </c>
     </row>
-    <row r="12" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -2326,8 +2412,15 @@
       <c r="BB12" s="6">
         <v>0</v>
       </c>
+      <c r="BC12" s="6">
+        <v>329.97</v>
+      </c>
+      <c r="BD12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2400000000000273</v>
+      </c>
     </row>
-    <row r="13" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -2485,8 +2578,15 @@
       <c r="BB13" s="6">
         <v>0</v>
       </c>
+      <c r="BC13" s="6">
+        <v>329.97</v>
+      </c>
+      <c r="BD13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.3000000000000273</v>
+      </c>
     </row>
-    <row r="14" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -2644,8 +2744,15 @@
       <c r="BB14" s="6">
         <v>0</v>
       </c>
+      <c r="BC14" s="6">
+        <v>329.97</v>
+      </c>
+      <c r="BD14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.3600000000000273</v>
+      </c>
     </row>
-    <row r="15" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -2803,8 +2910,15 @@
       <c r="BB15" s="6">
         <v>0</v>
       </c>
+      <c r="BC15" s="6">
+        <v>329.97</v>
+      </c>
+      <c r="BD15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.4200000000000273</v>
+      </c>
     </row>
-    <row r="16" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2959,8 +3073,15 @@
       <c r="BB16" s="2">
         <v>0</v>
       </c>
+      <c r="BC16" s="2">
+        <v>329.1</v>
+      </c>
+      <c r="BD16" s="2">
+        <f>B16</f>
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="17" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -3115,8 +3236,15 @@
       <c r="BB17" s="2">
         <v>0</v>
       </c>
+      <c r="BC17" s="2">
+        <v>329.1</v>
+      </c>
+      <c r="BD17" s="2">
+        <f t="shared" ref="BD17:BD22" si="3">B17</f>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="18" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -3271,8 +3399,15 @@
       <c r="BB18" s="2">
         <v>0</v>
       </c>
+      <c r="BC18" s="2">
+        <v>329.1</v>
+      </c>
+      <c r="BD18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="19" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3427,8 +3562,15 @@
       <c r="BB19" s="2">
         <v>0</v>
       </c>
+      <c r="BC19" s="2">
+        <v>329.1</v>
+      </c>
+      <c r="BD19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="20" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3583,8 +3725,15 @@
       <c r="BB20" s="2">
         <v>0</v>
       </c>
+      <c r="BC20" s="2">
+        <v>329.1</v>
+      </c>
+      <c r="BD20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="21" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -3739,8 +3888,15 @@
       <c r="BB21" s="2">
         <v>0</v>
       </c>
+      <c r="BC21" s="2">
+        <v>329.1</v>
+      </c>
+      <c r="BD21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="22" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -3893,8 +4049,15 @@
       <c r="BB22" s="2">
         <v>0</v>
       </c>
+      <c r="BC22" s="2">
+        <v>329.1</v>
+      </c>
+      <c r="BD22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="23" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -4049,8 +4212,15 @@
       <c r="BB23" s="6">
         <v>0</v>
       </c>
+      <c r="BC23" s="6">
+        <v>329.3</v>
+      </c>
+      <c r="BD23" s="6">
+        <f>$BC$23-$BC$16+B23</f>
+        <v>0.35999999999998866</v>
+      </c>
     </row>
-    <row r="24" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
@@ -4208,8 +4378,15 @@
       <c r="BB24" s="6">
         <v>0</v>
       </c>
+      <c r="BC24" s="6">
+        <v>329.3</v>
+      </c>
+      <c r="BD24" s="6">
+        <f t="shared" ref="BD24:BD31" si="4">$BC$23-$BC$16+B24</f>
+        <v>0.38999999999998863</v>
+      </c>
     </row>
-    <row r="25" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
@@ -4367,8 +4544,15 @@
       <c r="BB25" s="6">
         <v>0</v>
       </c>
+      <c r="BC25" s="6">
+        <v>329.3</v>
+      </c>
+      <c r="BD25" s="6">
+        <f t="shared" si="4"/>
+        <v>0.4199999999999886</v>
+      </c>
     </row>
-    <row r="26" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
@@ -4526,8 +4710,15 @@
       <c r="BB26" s="6">
         <v>0</v>
       </c>
+      <c r="BC26" s="6">
+        <v>329.3</v>
+      </c>
+      <c r="BD26" s="6">
+        <f t="shared" si="4"/>
+        <v>0.44999999999998863</v>
+      </c>
     </row>
-    <row r="27" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>10</v>
       </c>
@@ -4685,8 +4876,15 @@
       <c r="BB27" s="6">
         <v>0</v>
       </c>
+      <c r="BC27" s="6">
+        <v>329.3</v>
+      </c>
+      <c r="BD27" s="6">
+        <f t="shared" si="4"/>
+        <v>0.47999999999998866</v>
+      </c>
     </row>
-    <row r="28" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>10</v>
       </c>
@@ -4844,8 +5042,15 @@
       <c r="BB28" s="6">
         <v>0</v>
       </c>
+      <c r="BC28" s="6">
+        <v>329.3</v>
+      </c>
+      <c r="BD28" s="6">
+        <f t="shared" si="4"/>
+        <v>0.53999999999998871</v>
+      </c>
     </row>
-    <row r="29" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>10</v>
       </c>
@@ -5003,8 +5208,15 @@
       <c r="BB29" s="6">
         <v>0</v>
       </c>
+      <c r="BC29" s="6">
+        <v>329.3</v>
+      </c>
+      <c r="BD29" s="6">
+        <f t="shared" si="4"/>
+        <v>0.59999999999998865</v>
+      </c>
     </row>
-    <row r="30" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
@@ -5162,8 +5374,15 @@
       <c r="BB30" s="6">
         <v>0</v>
       </c>
+      <c r="BC30" s="6">
+        <v>329.3</v>
+      </c>
+      <c r="BD30" s="6">
+        <f t="shared" si="4"/>
+        <v>0.6599999999999886</v>
+      </c>
     </row>
-    <row r="31" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
@@ -5321,8 +5540,15 @@
       <c r="BB31" s="6">
         <v>0</v>
       </c>
+      <c r="BC31" s="6">
+        <v>329.3</v>
+      </c>
+      <c r="BD31" s="6">
+        <f t="shared" si="4"/>
+        <v>0.71999999999998865</v>
+      </c>
     </row>
-    <row r="32" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -5477,8 +5703,15 @@
       <c r="BB32" s="2">
         <v>0</v>
       </c>
+      <c r="BC32" s="2">
+        <v>329.15</v>
+      </c>
+      <c r="BD32" s="2">
+        <f>B32</f>
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="33" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
@@ -5633,8 +5866,15 @@
       <c r="BB33" s="2">
         <v>0</v>
       </c>
+      <c r="BC33" s="2">
+        <v>329.15</v>
+      </c>
+      <c r="BD33" s="2">
+        <f t="shared" ref="BD33:BD39" si="5">B33</f>
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="34" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
@@ -5789,8 +6029,15 @@
       <c r="BB34" s="2">
         <v>0</v>
       </c>
+      <c r="BC34" s="2">
+        <v>329.15</v>
+      </c>
+      <c r="BD34" s="2">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="35" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>11</v>
       </c>
@@ -5945,8 +6192,15 @@
       <c r="BB35" s="2">
         <v>0</v>
       </c>
+      <c r="BC35" s="2">
+        <v>329.15</v>
+      </c>
+      <c r="BD35" s="2">
+        <f t="shared" si="5"/>
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="36" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
@@ -6101,8 +6355,15 @@
       <c r="BB36" s="2">
         <v>0</v>
       </c>
+      <c r="BC36" s="2">
+        <v>329.15</v>
+      </c>
+      <c r="BD36" s="2">
+        <f t="shared" si="5"/>
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="37" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
@@ -6254,8 +6515,15 @@
       <c r="BB37" s="2">
         <v>0</v>
       </c>
+      <c r="BC37" s="2">
+        <v>329.15</v>
+      </c>
+      <c r="BD37" s="2">
+        <f t="shared" si="5"/>
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="38" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
@@ -6407,8 +6675,15 @@
       <c r="BB38" s="2">
         <v>0</v>
       </c>
+      <c r="BC38" s="2">
+        <v>329.15</v>
+      </c>
+      <c r="BD38" s="2">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="39" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
@@ -6560,8 +6835,15 @@
       <c r="BB39" s="2">
         <v>0</v>
       </c>
+      <c r="BC39" s="2">
+        <v>329.15</v>
+      </c>
+      <c r="BD39" s="2">
+        <f t="shared" si="5"/>
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="40" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>12</v>
       </c>
@@ -6719,8 +7001,15 @@
       <c r="BB40" s="6">
         <v>0</v>
       </c>
+      <c r="BC40" s="6">
+        <v>329.12</v>
+      </c>
+      <c r="BD40" s="6">
+        <f>$BC$40-$BC$32+B40</f>
+        <v>6.0000000000027282E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
@@ -6878,8 +7167,15 @@
       <c r="BB41" s="6">
         <v>0</v>
       </c>
+      <c r="BC41" s="6">
+        <v>329.12</v>
+      </c>
+      <c r="BD41" s="6">
+        <f t="shared" ref="BD41:BD47" si="6">$BC$40-$BC$32+B41</f>
+        <v>9.000000000002728E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>12</v>
       </c>
@@ -7037,8 +7333,15 @@
       <c r="BB42" s="6">
         <v>0</v>
       </c>
+      <c r="BC42" s="6">
+        <v>329.12</v>
+      </c>
+      <c r="BD42" s="6">
+        <f t="shared" si="6"/>
+        <v>0.12000000000002728</v>
+      </c>
     </row>
-    <row r="43" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
@@ -7196,8 +7499,15 @@
       <c r="BB43" s="6">
         <v>0</v>
       </c>
+      <c r="BC43" s="6">
+        <v>329.12</v>
+      </c>
+      <c r="BD43" s="6">
+        <f t="shared" si="6"/>
+        <v>0.15000000000002728</v>
+      </c>
     </row>
-    <row r="44" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>12</v>
       </c>
@@ -7355,8 +7665,15 @@
       <c r="BB44" s="6">
         <v>0</v>
       </c>
+      <c r="BC44" s="6">
+        <v>329.12</v>
+      </c>
+      <c r="BD44" s="6">
+        <f t="shared" si="6"/>
+        <v>0.18000000000002728</v>
+      </c>
     </row>
-    <row r="45" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>12</v>
       </c>
@@ -7514,8 +7831,15 @@
       <c r="BB45" s="6">
         <v>0</v>
       </c>
+      <c r="BC45" s="6">
+        <v>329.12</v>
+      </c>
+      <c r="BD45" s="6">
+        <f t="shared" si="6"/>
+        <v>0.21000000000002728</v>
+      </c>
     </row>
-    <row r="46" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>12</v>
       </c>
@@ -7673,8 +7997,15 @@
       <c r="BB46" s="6">
         <v>0</v>
       </c>
+      <c r="BC46" s="6">
+        <v>329.12</v>
+      </c>
+      <c r="BD46" s="6">
+        <f t="shared" si="6"/>
+        <v>0.27000000000002727</v>
+      </c>
     </row>
-    <row r="47" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>12</v>
       </c>
@@ -7829,8 +8160,15 @@
       <c r="BB47" s="6">
         <v>0</v>
       </c>
+      <c r="BC47" s="6">
+        <v>329.12</v>
+      </c>
+      <c r="BD47" s="6">
+        <f t="shared" si="6"/>
+        <v>0.33000000000002727</v>
+      </c>
     </row>
-    <row r="48" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>13</v>
       </c>
@@ -7988,8 +8326,15 @@
       <c r="BB48" s="2">
         <v>0</v>
       </c>
+      <c r="BC48" s="2">
+        <v>328.85</v>
+      </c>
+      <c r="BD48" s="2">
+        <f>B48</f>
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="49" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -8147,8 +8492,15 @@
       <c r="BB49" s="2">
         <v>0</v>
       </c>
+      <c r="BC49" s="2">
+        <v>328.85</v>
+      </c>
+      <c r="BD49" s="2">
+        <f t="shared" ref="BD49:BD55" si="7">B49</f>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="50" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>13</v>
       </c>
@@ -8306,8 +8658,15 @@
       <c r="BB50" s="2">
         <v>0</v>
       </c>
+      <c r="BC50" s="2">
+        <v>328.85</v>
+      </c>
+      <c r="BD50" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="51" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
@@ -8465,8 +8824,15 @@
       <c r="BB51" s="2">
         <v>0</v>
       </c>
+      <c r="BC51" s="2">
+        <v>328.85</v>
+      </c>
+      <c r="BD51" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="52" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
@@ -8624,8 +8990,15 @@
       <c r="BB52" s="2">
         <v>0</v>
       </c>
+      <c r="BC52" s="2">
+        <v>328.85</v>
+      </c>
+      <c r="BD52" s="2">
+        <f t="shared" si="7"/>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="53" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
@@ -8783,8 +9156,15 @@
       <c r="BB53" s="2">
         <v>0</v>
       </c>
+      <c r="BC53" s="2">
+        <v>328.85</v>
+      </c>
+      <c r="BD53" s="2">
+        <f t="shared" si="7"/>
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="54" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -8939,8 +9319,15 @@
       <c r="BB54" s="2">
         <v>0</v>
       </c>
+      <c r="BC54" s="2">
+        <v>328.85</v>
+      </c>
+      <c r="BD54" s="2">
+        <f t="shared" si="7"/>
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="55" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
@@ -9095,8 +9482,15 @@
       <c r="BB55" s="2">
         <v>0</v>
       </c>
+      <c r="BC55" s="2">
+        <v>328.85</v>
+      </c>
+      <c r="BD55" s="2">
+        <f t="shared" si="7"/>
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="56" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>14</v>
       </c>
@@ -9254,8 +9648,15 @@
       <c r="BB56" s="6">
         <v>0</v>
       </c>
+      <c r="BC56" s="6">
+        <v>328.94</v>
+      </c>
+      <c r="BD56" s="6">
+        <f>$BC$56-$BC$48+B56</f>
+        <v>0.20999999999997498</v>
+      </c>
     </row>
-    <row r="57" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>14</v>
       </c>
@@ -9413,8 +9814,15 @@
       <c r="BB57" s="6">
         <v>0</v>
       </c>
+      <c r="BC57" s="6">
+        <v>328.94</v>
+      </c>
+      <c r="BD57" s="6">
+        <f t="shared" ref="BD57:BD63" si="8">$BC$56-$BC$48+B57</f>
+        <v>0.23999999999997498</v>
+      </c>
     </row>
-    <row r="58" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>14</v>
       </c>
@@ -9572,8 +9980,15 @@
       <c r="BB58" s="6">
         <v>0</v>
       </c>
+      <c r="BC58" s="6">
+        <v>328.94</v>
+      </c>
+      <c r="BD58" s="6">
+        <f t="shared" si="8"/>
+        <v>0.26999999999997498</v>
+      </c>
     </row>
-    <row r="59" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>14</v>
       </c>
@@ -9731,8 +10146,15 @@
       <c r="BB59" s="6">
         <v>0</v>
       </c>
+      <c r="BC59" s="6">
+        <v>328.94</v>
+      </c>
+      <c r="BD59" s="6">
+        <f t="shared" si="8"/>
+        <v>0.29999999999997495</v>
+      </c>
     </row>
-    <row r="60" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>14</v>
       </c>
@@ -9890,8 +10312,15 @@
       <c r="BB60" s="6">
         <v>0</v>
       </c>
+      <c r="BC60" s="6">
+        <v>328.94</v>
+      </c>
+      <c r="BD60" s="6">
+        <f t="shared" si="8"/>
+        <v>0.32999999999997498</v>
+      </c>
     </row>
-    <row r="61" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>14</v>
       </c>
@@ -10049,8 +10478,15 @@
       <c r="BB61" s="6">
         <v>0</v>
       </c>
+      <c r="BC61" s="6">
+        <v>328.94</v>
+      </c>
+      <c r="BD61" s="6">
+        <f t="shared" si="8"/>
+        <v>0.35999999999997501</v>
+      </c>
     </row>
-    <row r="62" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>14</v>
       </c>
@@ -10208,8 +10644,15 @@
       <c r="BB62" s="6">
         <v>0</v>
       </c>
+      <c r="BC62" s="6">
+        <v>328.94</v>
+      </c>
+      <c r="BD62" s="6">
+        <f t="shared" si="8"/>
+        <v>0.419999999999975</v>
+      </c>
     </row>
-    <row r="63" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>14</v>
       </c>
@@ -10367,8 +10810,15 @@
       <c r="BB63" s="6">
         <v>0</v>
       </c>
+      <c r="BC63" s="6">
+        <v>328.94</v>
+      </c>
+      <c r="BD63" s="6">
+        <f t="shared" si="8"/>
+        <v>0.479999999999975</v>
+      </c>
     </row>
-    <row r="64" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
@@ -10526,8 +10976,15 @@
       <c r="BB64" s="2">
         <v>0</v>
       </c>
+      <c r="BC64" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD64" s="2">
+        <f>B64</f>
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="65" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>15</v>
       </c>
@@ -10685,8 +11142,15 @@
       <c r="BB65" s="2">
         <v>0</v>
       </c>
+      <c r="BC65" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD65" s="2">
+        <f t="shared" ref="BD65:BD73" si="9">B65</f>
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="66" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>15</v>
       </c>
@@ -10844,8 +11308,15 @@
       <c r="BB66" s="2">
         <v>0</v>
       </c>
+      <c r="BC66" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD66" s="2">
+        <f t="shared" si="9"/>
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="67" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>15</v>
       </c>
@@ -11003,8 +11474,15 @@
       <c r="BB67" s="2">
         <v>0</v>
       </c>
+      <c r="BC67" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD67" s="2">
+        <f t="shared" si="9"/>
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="68" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -11024,7 +11502,7 @@
         <v>0.19</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" ref="G68:G83" si="1">F68+B68</f>
+        <f t="shared" ref="G68:G83" si="10">F68+B68</f>
         <v>0.43</v>
       </c>
       <c r="H68" s="2">
@@ -11162,8 +11640,15 @@
       <c r="BB68" s="2">
         <v>0</v>
       </c>
+      <c r="BC68" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD68" s="2">
+        <f t="shared" si="9"/>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="69" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>15</v>
       </c>
@@ -11183,7 +11668,7 @@
         <v>0.19</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.46</v>
       </c>
       <c r="H69" s="2">
@@ -11321,8 +11806,15 @@
       <c r="BB69" s="2">
         <v>0</v>
       </c>
+      <c r="BC69" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD69" s="2">
+        <f t="shared" si="9"/>
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="70" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>15</v>
       </c>
@@ -11342,7 +11834,7 @@
         <v>0.19</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.52</v>
       </c>
       <c r="H70" s="2">
@@ -11480,8 +11972,15 @@
       <c r="BB70" s="2">
         <v>0</v>
       </c>
+      <c r="BC70" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD70" s="2">
+        <f t="shared" si="9"/>
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="71" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>15</v>
       </c>
@@ -11501,7 +12000,7 @@
         <v>0.19</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="H71" s="2">
@@ -11639,8 +12138,15 @@
       <c r="BB71" s="2">
         <v>0</v>
       </c>
+      <c r="BC71" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD71" s="2">
+        <f t="shared" si="9"/>
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="72" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>15</v>
       </c>
@@ -11660,7 +12166,7 @@
         <v>0.19</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.64</v>
       </c>
       <c r="H72" s="2">
@@ -11798,8 +12304,15 @@
       <c r="BB72" s="2">
         <v>0</v>
       </c>
+      <c r="BC72" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD72" s="2">
+        <f t="shared" si="9"/>
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="73" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>15</v>
       </c>
@@ -11819,7 +12332,7 @@
         <v>0.19</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
       <c r="H73" s="2">
@@ -11957,8 +12470,15 @@
       <c r="BB73" s="2">
         <v>0</v>
       </c>
+      <c r="BC73" s="2">
+        <v>328.91</v>
+      </c>
+      <c r="BD73" s="2">
+        <f t="shared" si="9"/>
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="74" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>16</v>
       </c>
@@ -11978,7 +12498,7 @@
         <v>0.18</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="H74" s="6">
@@ -12116,8 +12636,15 @@
       <c r="BB74" s="6">
         <v>0</v>
       </c>
+      <c r="BC74" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD74" s="6">
+        <f>$BC$74-$BC$64+B74</f>
+        <v>0.12999999999996134</v>
+      </c>
     </row>
-    <row r="75" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>16</v>
       </c>
@@ -12137,7 +12664,7 @@
         <v>0.18</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.36</v>
       </c>
       <c r="H75" s="6">
@@ -12275,8 +12802,15 @@
       <c r="BB75" s="6">
         <v>0</v>
       </c>
+      <c r="BC75" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD75" s="6">
+        <f t="shared" ref="BD75:BD83" si="11">$BC$74-$BC$64+B75</f>
+        <v>0.15999999999996134</v>
+      </c>
     </row>
-    <row r="76" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>16</v>
       </c>
@@ -12296,7 +12830,7 @@
         <v>0.18</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.39</v>
       </c>
       <c r="H76" s="6">
@@ -12434,8 +12968,15 @@
       <c r="BB76" s="6">
         <v>0</v>
       </c>
+      <c r="BC76" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD76" s="6">
+        <f t="shared" si="11"/>
+        <v>0.18999999999996134</v>
+      </c>
     </row>
-    <row r="77" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
@@ -12455,7 +12996,7 @@
         <v>0.18</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.42</v>
       </c>
       <c r="H77" s="6">
@@ -12593,8 +13134,15 @@
       <c r="BB77" s="6">
         <v>0</v>
       </c>
+      <c r="BC77" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD77" s="6">
+        <f t="shared" si="11"/>
+        <v>0.21999999999996134</v>
+      </c>
     </row>
-    <row r="78" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>16</v>
       </c>
@@ -12614,7 +13162,7 @@
         <v>0.18</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.45</v>
       </c>
       <c r="H78" s="6">
@@ -12752,8 +13300,15 @@
       <c r="BB78" s="6">
         <v>0</v>
       </c>
+      <c r="BC78" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD78" s="6">
+        <f t="shared" si="11"/>
+        <v>0.24999999999996136</v>
+      </c>
     </row>
-    <row r="79" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>16</v>
       </c>
@@ -12773,7 +13328,7 @@
         <v>0.18</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.48</v>
       </c>
       <c r="H79" s="6">
@@ -12911,8 +13466,15 @@
       <c r="BB79" s="6">
         <v>0</v>
       </c>
+      <c r="BC79" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD79" s="6">
+        <f t="shared" si="11"/>
+        <v>0.27999999999996134</v>
+      </c>
     </row>
-    <row r="80" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>16</v>
       </c>
@@ -12932,7 +13494,7 @@
         <v>0.18</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.54</v>
       </c>
       <c r="H80" s="6">
@@ -13070,8 +13632,15 @@
       <c r="BB80" s="6">
         <v>0</v>
       </c>
+      <c r="BC80" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD80" s="6">
+        <f t="shared" si="11"/>
+        <v>0.33999999999996133</v>
+      </c>
     </row>
-    <row r="81" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>16</v>
       </c>
@@ -13091,7 +13660,7 @@
         <v>0.18</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
       <c r="H81" s="6">
@@ -13229,8 +13798,15 @@
       <c r="BB81" s="6">
         <v>0</v>
       </c>
+      <c r="BC81" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD81" s="6">
+        <f t="shared" si="11"/>
+        <v>0.39999999999996133</v>
+      </c>
     </row>
-    <row r="82" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>16</v>
       </c>
@@ -13250,7 +13826,7 @@
         <v>0.18</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.65999999999999992</v>
       </c>
       <c r="H82" s="6">
@@ -13388,8 +13964,15 @@
       <c r="BB82" s="6">
         <v>0</v>
       </c>
+      <c r="BC82" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD82" s="6">
+        <f t="shared" si="11"/>
+        <v>0.45999999999996133</v>
+      </c>
     </row>
-    <row r="83" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>16</v>
       </c>
@@ -13409,7 +13992,7 @@
         <v>0.18</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.72</v>
       </c>
       <c r="H83" s="6">
@@ -13546,6 +14129,13 @@
       </c>
       <c r="BB83" s="6">
         <v>0</v>
+      </c>
+      <c r="BC83" s="6">
+        <v>328.89</v>
+      </c>
+      <c r="BD83" s="6">
+        <f t="shared" si="11"/>
+        <v>0.51999999999996138</v>
       </c>
     </row>
   </sheetData>
